--- a/data_handler/config_calc_details(India)/1-statistic_config-detail phen days.xlsx
+++ b/data_handler/config_calc_details(India)/1-statistic_config-detail phen days.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8935E7-F56D-4EA4-9E54-B1F22D65C305}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0BCD06-EC4B-4053-94D2-B10E19A10EAB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="759" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1364,30 +1364,20 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1757,11 +1747,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="16" t="s">
         <v>22</v>
       </c>
@@ -2276,7 +2266,7 @@
       </c>
       <c r="C2" s="37">
         <f ca="1">TODAY()</f>
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>46</v>
@@ -2848,7 +2838,7 @@
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="86.75" style="58" customWidth="1"/>
+    <col min="2" max="2" width="86.75" style="57" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="50.25" style="23" customWidth="1"/>
   </cols>
@@ -2857,7 +2847,7 @@
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="38" t="s">
@@ -3433,7 +3423,7 @@
       </c>
       <c r="B7" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-6,"YYYY/mm/dd")</f>
-        <v>2020/12/18</v>
+        <v>2021/01/19</v>
       </c>
       <c r="C7" s="42" t="s">
         <v>186</v>
@@ -3448,7 +3438,7 @@
       </c>
       <c r="B8" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-5,"YYYY/mm/dd")</f>
-        <v>2020/12/19</v>
+        <v>2021/01/20</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>16</v>
@@ -3463,7 +3453,7 @@
       </c>
       <c r="B9" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-4,"YYYY/mm/dd")</f>
-        <v>2020/12/20</v>
+        <v>2021/01/21</v>
       </c>
       <c r="C9" s="42" t="s">
         <v>16</v>
@@ -3478,7 +3468,7 @@
       </c>
       <c r="B10" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-3,"YYYY/mm/dd")</f>
-        <v>2020/12/21</v>
+        <v>2021/01/22</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>16</v>
@@ -3493,7 +3483,7 @@
       </c>
       <c r="B11" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-2,"YYYY/mm/dd")</f>
-        <v>2020/12/22</v>
+        <v>2021/01/23</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>16</v>
@@ -3508,7 +3498,7 @@
       </c>
       <c r="B12" s="44" t="str">
         <f ca="1">TEXT('time process'!$C$2-1,"YYYY/mm/dd")</f>
-        <v>2020/12/23</v>
+        <v>2021/01/24</v>
       </c>
       <c r="C12" s="42" t="s">
         <v>16</v>
@@ -3671,7 +3661,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="str">
         <f ca="1">"发帖时间 &gt;= " &amp; "'" &amp; TEXT(TODAY()-20,"yyyy-mm-dd") &amp; "'"</f>
-        <v>发帖时间 &gt;= '2020-12-04'</v>
+        <v>发帖时间 &gt;= '2021-01-05'</v>
       </c>
       <c r="J2" s="5"/>
     </row>
